--- a/docs/PTA4_WDDC_100_10_20/PTA4_WDDC_100_10_20_14.08.2024_output.xlsx
+++ b/docs/PTA4_WDDC_100_10_20/PTA4_WDDC_100_10_20_14.08.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pupse</t>
+          <t>AFKS</t>
         </is>
       </c>
       <c r="C2" t="b">
@@ -503,13 +503,21 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>VT</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>20.801</v>
+      </c>
+      <c r="H2" t="n">
+        <v>20.79</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.01099999999999923</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-0.05</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -517,13 +525,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SBERP</t>
+          <t>GMKN</t>
         </is>
       </c>
       <c r="C3" t="b">
         <v>1</v>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>long</t>
@@ -535,16 +545,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>282.9</v>
+        <v>127.08</v>
       </c>
       <c r="H3" t="n">
-        <v>282.27</v>
+        <v>127.5</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.6299999999999955</v>
+        <v>0.4200000000000017</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.22</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="4">
@@ -553,7 +563,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SBER</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="C4" t="b">
@@ -564,7 +574,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -573,16 +583,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>282.9</v>
+        <v>6497</v>
       </c>
       <c r="H4" t="n">
-        <v>284.24</v>
+        <v>6494</v>
       </c>
       <c r="I4" t="n">
-        <v>1.340000000000032</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
-        <v>0.47</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="5">
@@ -591,16 +601,18 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SBER</t>
+          <t>MAGN</t>
         </is>
       </c>
       <c r="C5" t="b">
         <v>1</v>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -609,16 +621,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>283.24</v>
+        <v>50.545</v>
       </c>
       <c r="H5" t="n">
-        <v>282.91</v>
+        <v>50.495</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.3299999999999841</v>
+        <v>0.05000000000000426</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.12</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="6">
@@ -627,16 +639,18 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>GAZP</t>
+          <t>MTLR</t>
         </is>
       </c>
       <c r="C6" t="b">
         <v>1</v>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -645,16 +659,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>130.86</v>
+        <v>159.17</v>
       </c>
       <c r="H6" t="n">
-        <v>130.8</v>
+        <v>158.61</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.06000000000000227</v>
+        <v>0.5599999999999739</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.05</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="7">
@@ -663,7 +677,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>LKOH</t>
+          <t>NVTK</t>
         </is>
       </c>
       <c r="C7" t="b">
@@ -683,16 +697,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>6497</v>
+        <v>1066.8</v>
       </c>
       <c r="H7" t="n">
-        <v>6494</v>
+        <v>1062.2</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>4.599999999999909</v>
       </c>
       <c r="J7" t="n">
-        <v>0.05</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="8">
@@ -701,13 +715,15 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>LKOH</t>
+          <t>ROSN</t>
         </is>
       </c>
       <c r="C8" t="b">
         <v>1</v>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>long</t>
@@ -719,16 +735,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>6466.5</v>
+        <v>502.15</v>
       </c>
       <c r="H8" t="n">
-        <v>6461</v>
+        <v>503.8</v>
       </c>
       <c r="I8" t="n">
-        <v>-5.5</v>
+        <v>1.650000000000034</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.09</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="9">
@@ -737,7 +753,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ROSN</t>
+          <t>SIBN</t>
         </is>
       </c>
       <c r="C9" t="b">
@@ -748,7 +764,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -757,16 +773,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>502.15</v>
+        <v>695.05</v>
       </c>
       <c r="H9" t="n">
-        <v>503.8</v>
+        <v>692.7</v>
       </c>
       <c r="I9" t="n">
-        <v>1.650000000000034</v>
+        <v>2.349999999999909</v>
       </c>
       <c r="J9" t="n">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="10">
@@ -775,13 +791,15 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ROSN</t>
+          <t>SOFL</t>
         </is>
       </c>
       <c r="C10" t="b">
         <v>1</v>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>long</t>
@@ -793,16 +811,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>502.55</v>
+        <v>157.6</v>
       </c>
       <c r="H10" t="n">
-        <v>501.5</v>
+        <v>158.84</v>
       </c>
       <c r="I10" t="n">
-        <v>-1.050000000000011</v>
+        <v>1.240000000000009</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.21</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="11">
@@ -811,16 +829,18 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MOEX</t>
+          <t>VTBR</t>
         </is>
       </c>
       <c r="C11" t="b">
         <v>1</v>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -829,16 +849,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>225.66</v>
+        <v>101.83</v>
       </c>
       <c r="H11" t="n">
-        <v>224.3</v>
+        <v>101.42</v>
       </c>
       <c r="I11" t="n">
-        <v>-1.359999999999985</v>
+        <v>0.4099999999999966</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="12">
@@ -847,18 +867,16 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NVTK</t>
+          <t>ALRS</t>
         </is>
       </c>
       <c r="C12" t="b">
         <v>1</v>
       </c>
-      <c r="D12" t="b">
-        <v>1</v>
-      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -867,16 +885,16 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1066.8</v>
+        <v>59.53</v>
       </c>
       <c r="H12" t="n">
-        <v>1062.2</v>
+        <v>59.59</v>
       </c>
       <c r="I12" t="n">
-        <v>4.599999999999909</v>
+        <v>0.06000000000000227</v>
       </c>
       <c r="J12" t="n">
-        <v>0.43</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="13">
@@ -885,7 +903,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NVTK</t>
+          <t>CHMF</t>
         </is>
       </c>
       <c r="C13" t="b">
@@ -903,16 +921,16 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1057.4</v>
+        <v>1405.8</v>
       </c>
       <c r="H13" t="n">
-        <v>1060</v>
+        <v>1401</v>
       </c>
       <c r="I13" t="n">
-        <v>2.599999999999909</v>
+        <v>-4.799999999999955</v>
       </c>
       <c r="J13" t="n">
-        <v>0.25</v>
+        <v>-0.34</v>
       </c>
     </row>
     <row r="14">
@@ -957,15 +975,13 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>GMKN</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="C15" t="b">
         <v>1</v>
       </c>
-      <c r="D15" t="b">
-        <v>1</v>
-      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
           <t>long</t>
@@ -977,16 +993,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>127.08</v>
+        <v>130.86</v>
       </c>
       <c r="H15" t="n">
-        <v>127.5</v>
+        <v>130.8</v>
       </c>
       <c r="I15" t="n">
-        <v>0.4200000000000017</v>
+        <v>-0.06000000000000227</v>
       </c>
       <c r="J15" t="n">
-        <v>0.33</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="16">
@@ -1031,18 +1047,16 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MAGN</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="C17" t="b">
         <v>1</v>
       </c>
-      <c r="D17" t="b">
-        <v>1</v>
-      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1051,16 +1065,16 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>50.545</v>
+        <v>6466.5</v>
       </c>
       <c r="H17" t="n">
-        <v>50.495</v>
+        <v>6461</v>
       </c>
       <c r="I17" t="n">
-        <v>0.05000000000000426</v>
+        <v>-5.5</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1</v>
+        <v>-0.09</v>
       </c>
     </row>
     <row r="18">
@@ -1105,7 +1119,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CHMF</t>
+          <t>MOEX</t>
         </is>
       </c>
       <c r="C19" t="b">
@@ -1123,16 +1137,16 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1405.8</v>
+        <v>225.66</v>
       </c>
       <c r="H19" t="n">
-        <v>1401</v>
+        <v>224.3</v>
       </c>
       <c r="I19" t="n">
-        <v>-4.799999999999955</v>
+        <v>-1.359999999999985</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.34</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="20">
@@ -1141,7 +1155,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ALRS</t>
+          <t>MTLR</t>
         </is>
       </c>
       <c r="C20" t="b">
@@ -1159,16 +1173,16 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>59.53</v>
+        <v>156.69</v>
       </c>
       <c r="H20" t="n">
-        <v>59.59</v>
+        <v>156.26</v>
       </c>
       <c r="I20" t="n">
-        <v>0.06000000000000227</v>
+        <v>-0.4300000000000068</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1</v>
+        <v>-0.27</v>
       </c>
     </row>
     <row r="21">
@@ -1177,18 +1191,16 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>VTBR</t>
+          <t>NVTK</t>
         </is>
       </c>
       <c r="C21" t="b">
         <v>1</v>
       </c>
-      <c r="D21" t="b">
-        <v>1</v>
-      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1197,16 +1209,16 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>101.83</v>
+        <v>1057.4</v>
       </c>
       <c r="H21" t="n">
-        <v>101.42</v>
+        <v>1060</v>
       </c>
       <c r="I21" t="n">
-        <v>0.4099999999999966</v>
+        <v>2.599999999999909</v>
       </c>
       <c r="J21" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="22">
@@ -1215,7 +1227,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>VTBR</t>
+          <t>ROSN</t>
         </is>
       </c>
       <c r="C22" t="b">
@@ -1233,16 +1245,16 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>101.14</v>
+        <v>502.55</v>
       </c>
       <c r="H22" t="n">
-        <v>101.06</v>
+        <v>501.5</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.07999999999999829</v>
+        <v>-1.050000000000011</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.08</v>
+        <v>-0.21</v>
       </c>
     </row>
     <row r="23">
@@ -1251,7 +1263,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SELG</t>
+          <t>SBERP</t>
         </is>
       </c>
       <c r="C23" t="b">
@@ -1269,16 +1281,16 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>56.95</v>
+        <v>282.9</v>
       </c>
       <c r="H23" t="n">
-        <v>56.71</v>
+        <v>282.27</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.240000000000002</v>
+        <v>-0.6299999999999955</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.42</v>
+        <v>-0.22</v>
       </c>
     </row>
     <row r="24">
@@ -1287,15 +1299,13 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SOFL</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="C24" t="b">
         <v>1</v>
       </c>
-      <c r="D24" t="b">
-        <v>1</v>
-      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
           <t>long</t>
@@ -1307,16 +1317,16 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>157.6</v>
+        <v>283.24</v>
       </c>
       <c r="H24" t="n">
-        <v>158.84</v>
+        <v>282.91</v>
       </c>
       <c r="I24" t="n">
-        <v>1.240000000000009</v>
+        <v>-0.3299999999999841</v>
       </c>
       <c r="J24" t="n">
-        <v>0.79</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="25">
@@ -1325,7 +1335,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SOFL</t>
+          <t>SELG</t>
         </is>
       </c>
       <c r="C25" t="b">
@@ -1343,16 +1353,16 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>156.92</v>
+        <v>56.95</v>
       </c>
       <c r="H25" t="n">
-        <v>156.98</v>
+        <v>56.71</v>
       </c>
       <c r="I25" t="n">
-        <v>0.06000000000000227</v>
+        <v>-0.240000000000002</v>
       </c>
       <c r="J25" t="n">
-        <v>0.04</v>
+        <v>-0.42</v>
       </c>
     </row>
     <row r="26">
@@ -1361,15 +1371,13 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>AFKS</t>
+          <t>SOFL</t>
         </is>
       </c>
       <c r="C26" t="b">
         <v>1</v>
       </c>
-      <c r="D26" t="b">
-        <v>1</v>
-      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
           <t>long</t>
@@ -1381,16 +1389,16 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>20.801</v>
+        <v>156.92</v>
       </c>
       <c r="H26" t="n">
-        <v>20.79</v>
+        <v>156.98</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.01099999999999923</v>
+        <v>0.06000000000000227</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="27">
@@ -1399,18 +1407,16 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SIBN</t>
+          <t>VTBR</t>
         </is>
       </c>
       <c r="C27" t="b">
         <v>1</v>
       </c>
-      <c r="D27" t="b">
-        <v>1</v>
-      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1419,90 +1425,16 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>695.05</v>
+        <v>101.14</v>
       </c>
       <c r="H27" t="n">
-        <v>692.7</v>
+        <v>101.06</v>
       </c>
       <c r="I27" t="n">
-        <v>2.349999999999909</v>
+        <v>-0.07999999999999829</v>
       </c>
       <c r="J27" t="n">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>MTLR</t>
-        </is>
-      </c>
-      <c r="C28" t="b">
-        <v>1</v>
-      </c>
-      <c r="D28" t="b">
-        <v>1</v>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="G28" t="n">
-        <v>159.17</v>
-      </c>
-      <c r="H28" t="n">
-        <v>158.61</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0.5599999999999739</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>MTLR</t>
-        </is>
-      </c>
-      <c r="C29" t="b">
-        <v>1</v>
-      </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="G29" t="n">
-        <v>156.69</v>
-      </c>
-      <c r="H29" t="n">
-        <v>156.26</v>
-      </c>
-      <c r="I29" t="n">
-        <v>-0.4300000000000068</v>
-      </c>
-      <c r="J29" t="n">
-        <v>-0.27</v>
+        <v>-0.08</v>
       </c>
     </row>
   </sheetData>
@@ -1516,7 +1448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1581,394 +1513,376 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>SBER</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.010000000000048</v>
+        <v>-2.5</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5050000000000239</v>
+        <v>-1.25</v>
       </c>
       <c r="E3" t="n">
-        <v>0.35</v>
+        <v>-0.03999999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>0.18</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>VTBR</t>
+          <t>SOFL</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3299999999999983</v>
+        <v>1.300000000000011</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1649999999999991</v>
+        <v>0.6500000000000057</v>
       </c>
       <c r="E4" t="n">
-        <v>0.32</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>0.16</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>SOFL</t>
+          <t>ROSN</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.300000000000011</v>
+        <v>0.6000000000000227</v>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6500000000000057</v>
+        <v>0.3000000000000114</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8300000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="F5" t="n">
-        <v>0.42</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>GMKN</t>
+          <t>NVTK</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.2199999999999989</v>
+        <v>7.199999999999818</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.1099999999999994</v>
+        <v>3.599999999999909</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.17</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.08</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>LKOH</t>
+          <t>MAGN</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.5</v>
+        <v>0.01500000000000767</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.25</v>
+        <v>0.007500000000003837</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.03999999999999999</v>
+        <v>0.03000000000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.02</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>MAGN</t>
+          <t>VTBR</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01500000000000767</v>
+        <v>0.3299999999999983</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>0.007500000000003837</v>
+        <v>0.1649999999999991</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03000000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>NVTK</t>
+          <t>GMKN</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7.199999999999818</v>
+        <v>-0.2199999999999989</v>
       </c>
       <c r="C9" t="n">
         <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>3.599999999999909</v>
+        <v>-0.1099999999999994</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6799999999999999</v>
+        <v>-0.17</v>
       </c>
       <c r="F9" t="n">
-        <v>0.34</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>ROSN</t>
+          <t>MOEX</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6000000000000227</v>
+        <v>-1.359999999999985</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3000000000000114</v>
+        <v>-1.359999999999985</v>
       </c>
       <c r="E10" t="n">
-        <v>0.12</v>
+        <v>-0.6</v>
       </c>
       <c r="F10" t="n">
-        <v>0.06</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>SIBN</t>
+          <t>ALRS</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.349999999999909</v>
+        <v>0.06000000000000227</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>2.349999999999909</v>
+        <v>0.06000000000000227</v>
       </c>
       <c r="E11" t="n">
-        <v>0.34</v>
+        <v>0.1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.34</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>SELG</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.240000000000002</v>
+        <v>-0.06000000000000227</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.240000000000002</v>
+        <v>-0.06000000000000227</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.42</v>
+        <v>-0.05</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.42</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>SBERP</t>
+          <t>CNY</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.6299999999999955</v>
+        <v>-0.07500000000000107</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.6299999999999955</v>
+        <v>-0.07500000000000107</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.22</v>
+        <v>-0.62</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.22</v>
+        <v>-0.62</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>AFKS</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.01099999999999923</v>
+        <v>-0.3299999999999841</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.01099999999999923</v>
+        <v>-0.3299999999999841</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.05</v>
+        <v>-0.12</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.05</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>ALRS</t>
+          <t>SBERP</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.06000000000000227</v>
+        <v>-0.6299999999999955</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0.06000000000000227</v>
+        <v>-0.6299999999999955</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1</v>
+        <v>-0.22</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1</v>
+        <v>-0.22</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>MOEX</t>
+          <t>SELG</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1.359999999999985</v>
+        <v>-0.240000000000002</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.359999999999985</v>
+        <v>-0.240000000000002</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.6</v>
+        <v>-0.42</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6</v>
+        <v>-0.42</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>GAZP</t>
+          <t>SIBN</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.06000000000000227</v>
+        <v>2.349999999999909</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.06000000000000227</v>
+        <v>2.349999999999909</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.05</v>
+        <v>0.34</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.05</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>CNY</t>
+          <t>CHMF</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.07500000000000107</v>
+        <v>-4.799999999999955</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.07500000000000107</v>
+        <v>-4.799999999999955</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.62</v>
+        <v>-0.34</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.62</v>
+        <v>-0.34</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>CHMF</t>
+          <t>AFKS</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-4.799999999999955</v>
+        <v>-0.01099999999999923</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>-4.799999999999955</v>
+        <v>-0.01099999999999923</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.34</v>
+        <v>-0.05</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.34</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>pupse</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="inlineStr"/>
+        <v>-0.05</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
